--- a/InputFiles/CCDI/TC03_CCDI_phs000463_DiagClasSyst-IndictnForStudy_DiagBas-Clinical.xlsx
+++ b/InputFiles/CCDI/TC03_CCDI_phs000463_DiagClasSyst-IndictnForStudy_DiagBas-Clinical.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10824"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\epishinavv\git\Commons_Automation\InputFiles\CCDI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/leungvw/git2/Commons_Automation/InputFiles/CCDI/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B7F6D282-973D-45B8-ABC9-B7A78E303FBB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EE6B0B3-A5D8-F747-9D1D-E71D08D08541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
+    <workbookView xWindow="-580" yWindow="-26620" windowWidth="37400" windowHeight="20240" xr2:uid="{8362173B-D28C-47E7-8626-98E16101E601}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -63,47 +63,6 @@
   </si>
   <si>
     <t>StudiesTab</t>
-  </si>
-  <si>
-    <t>with file_data as (
-select file_name, data_category, file_type, file_size, file_access, file_description,"study.id" studyid, "participant.id" as participantid from df_clinical_measure_file )
-SELECT fd.file_name AS "File Name",
-    fd.data_category AS "Data Category",
-    COALESCE(fd.file_description, '') AS "File Description",
-    fd.file_type AS "File Type" ,
-        CASE     
-    WHEN fd.file_size &gt;= 1024 * 1024 * 1024 THEN 
-        CASE 
-            WHEN ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 2) = CAST(ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) 
-            THEN CAST(CAST(ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' GB'
-            ELSE ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB'
-        END
-    WHEN fd.file_size &gt;= 1024 * 1024 THEN 
-        CASE 
-            WHEN ROUND(fd.file_size / (1024.0 * 1024.0), 2) = CAST(ROUND(fd.file_size / (1024.0 * 1024.0), 0) AS INT) 
-            THEN CAST(CAST(ROUND(fd.file_size / (1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' MB'
-            ELSE ROUND(fd.file_size / (1024.0 * 1024.0), 2) || ' MB'
-        END
-    WHEN fd.file_size &gt;= 1024 THEN 
-        CASE 
-            WHEN ROUND(fd.file_size / 1024.0, 2) = CAST(ROUND(fd.file_size / 1024.0, 0) AS INT) 
-            THEN CAST(CAST(ROUND(fd.file_size / 1024.0, 0) AS INT) AS TEXT) || ' KB'
-            ELSE ROUND(fd.file_size / 1024.0, 2) || ' KB'
-        END
-    ELSE 
-        CASE 
-            WHEN ROUND(fd.file_size, 2) = CAST(ROUND(fd.file_size, 0) AS INT) 
-            THEN CAST(CAST(ROUND(fd.file_size, 0) AS INT) AS TEXT) || ' Bytes'
-            ELSE ROUND(fd.file_size, 2) || ' Bytes'
-        END
-END AS "File Size",
-fd.file_access AS "File Access", std.dbgap_accession AS "Study ID", fd.participantid AS "Participant ID", null as "Sample ID"
-FROM 
-    df_study std
- LEFT JOIN  
-    file_data fd ON std.id = fd.studyid
-WHERE 
-    std.dbgap_accession = 'phs000463'</t>
   </si>
   <si>
     <t>WITH Study AS (
@@ -228,89 +187,177 @@
     <t>TC03_CCDI_phs000463_DiagClasSyst-IndictnForStudy_DiagBas-Clinical_WebData.xlsx</t>
   </si>
   <si>
+    <t>WITH file_data AS (
+  SELECT
+    cmf.file_name,
+    REPLACE(COALESCE(cmf.data_category, ''), ';', ', ') AS data_category,
+    COALESCE(cmf.file_description, '') AS file_description,
+    cmf.file_type,
+    cmf.file_access,
+    cmf.file_size,
+    cmf."study.id" AS study_row_id,
+    cmf."participant.id" AS participant_row_id
+  FROM df_clinical_measure_file cmf
+),
+Study AS (
+  SELECT std.id AS study_row_id, std.dbgap_accession AS study_id
+  FROM df_study std
+  WHERE std.dbgap_accession = 'phs000463'
+  LIMIT 1
+)
+SELECT DISTINCT
+  fd.file_name AS "File Name",
+  fd.data_category AS "Data Category",
+  fd.file_description AS "File Description",
+  fd.file_type AS "File Type",
+  CASE
+    WHEN COALESCE(fd.file_size, 0) &gt;= 1024 * 1024 * 1024 THEN
+      CASE
+        WHEN ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 2) = CAST(ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT)
+        THEN CAST(CAST(ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' GB'
+        ELSE ROUND(fd.file_size / (1024.0 * 1024.0 * 1024.0), 2) || ' GB'
+      END
+    WHEN COALESCE(fd.file_size, 0) &gt;= 1024 * 1024 THEN
+      CASE
+        WHEN ROUND(fd.file_size / (1024.0 * 1024.0), 2) = CAST(ROUND(fd.file_size / (1024.0 * 1024.0), 0) AS INT)
+        THEN CAST(CAST(ROUND(fd.file_size / (1024.0 * 1024.0), 0) AS INT) AS TEXT) || ' MB'
+        ELSE ROUND(fd.file_size / (1024.0 * 1024.0), 2) || ' MB'
+      END
+    WHEN COALESCE(fd.file_size, 0) &gt;= 1024 THEN
+      CASE
+        WHEN ROUND(fd.file_size / 1024.0, 2) = CAST(ROUND(fd.file_size / 1024.0, 0) AS INT)
+        THEN CAST(CAST(ROUND(fd.file_size / 1024.0, 0) AS INT) AS TEXT) || ' KB'
+        ELSE ROUND(fd.file_size / 1024.0, 2) || ' KB'
+      END
+    ELSE
+      CASE
+        WHEN ROUND(COALESCE(fd.file_size, 0), 2) = CAST(ROUND(COALESCE(fd.file_size, 0), 0) AS INT)
+        THEN CAST(CAST(ROUND(COALESCE(fd.file_size, 0), 0) AS INT) AS TEXT) || ' Bytes'
+        ELSE ROUND(COALESCE(fd.file_size, 0), 2) || ' Bytes'
+      END
+  END AS "File Size",
+  fd.file_access AS "File Access",
+  (SELECT study_id FROM Study) AS "Study ID",
+  COALESCE(prt.participant_id, '') AS "Participant ID",
+  '' AS "Sample ID"
+FROM file_data fd
+JOIN Study s ON fd.study_row_id = s.study_row_id
+LEFT JOIN df_participant prt ON prt.id = fd.participant_row_id
+ORDER BY fd.file_name
+LIMIT 100;</t>
+  </si>
+  <si>
     <t>SELECT
-    COUNT(DISTINCT std.dbgap_accession) AS "Studies",
-    COUNT(DISTINCT prt.participant_id) AS "Participants",
-    COUNT(DISTINCT smp.sample_id) AS "Samples",
-    (COUNT(DISTINCT cmf.id)) AS "Files"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_sample smp ON prt.id = smp."participant.id"
-Left JOIN 
-    df_diagnosis diag ON prt.id = diag."participant.id"  
-LEFT JOIN
-    df_survival srv ON prt.id = srv."participant.id"   
-LEFT JOIN 
-    df_clinical_measure_file cmf ON std.id = cmf."study.id"
-WHERE 
-    std.dbgap_accession = 'phs000463' AND diag.diagnosis_classification_system = 'Indication for Study' AND diag.diagnosis_basis ='Clinical' ;</t>
-  </si>
-  <si>
-    <t>SELECT DISTINCT
-    smp.sample_id AS "Sample ID",
-    prt.participant_id AS "Participant ID",
-    std.dbgap_accession AS "Study ID",
-    smp.anatomic_site AS "Sample Anatomic Site",
-    COALESCE(
-        CASE 
-            WHEN smp.participant_age_at_collection = -999 THEN 'Not Reported' 
-            ELSE smp.participant_age_at_collection 
-        END, 
-        0
-    ) AS "Age at Sample Collection (days)",
-    COALESCE(smp.sample_tumor_status, '') AS "Sample Tumor Status",
-    COALESCE(smp.tumor_classification, '') AS "Sample Tumor Classification",
-    dgn.diagnosis AS "Sample Diagnosis"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    df_sample smp ON prt.id = smp."participant.id"
-LEFT JOIN 
-    df_diagnosis dgn ON smp.id = dgn."sample.id"
-WHERE 
-  std.dbgap_accession = 'phs000463' AND diag.diagnosis_classification_system = 'Indication for Study' AND diag.diagnosis_basis ='Clinical'
-    AND smp.sample_id IS NOT NULL
-ORDER BY 
-    smp.sample_id ASC;</t>
-  </si>
-  <si>
-    <t>with diagnosis1 as (
-select dgn."participant.id", group_concat(dgn.age_at_diagnosis,';') as age, group_concat(dgn.diagnosis,';') as diag,group_concat(dgn.anatomic_site,';') as ant_site from df_diagnosis dgn where dgn."participant.id" is not null group by dgn."participant.id" ),
-diagnosis2 as (select "participant.id",  group_concat(diagnosis,';') as diag from (select distinct "participant.id", diagnosis from df_diagnosis  where "participant.id" is not null )  group by "participant.id" ),
-diagnosis3 as (select "participant.id",  group_concat(anatomic_site,';') as ant_site from (select distinct "participant.id", anatomic_site from df_diagnosis where "participant.id" is not null ) group by "participant.id" ) 
+  COUNT(DISTINCT std.dbgap_accession) AS "Studies",
+  COUNT(DISTINCT prt.participant_id)  AS "Participants",
+  CAST(0 AS INTEGER)                  AS "Samples",
+  COUNT(DISTINCT cmf.id)              AS "Files"
+FROM df_study std
+JOIN df_consent_group cg ON std.id = cg."study.id"
+JOIN df_participant prt ON cg.id = prt."consent_group.id"
+LEFT JOIN df_clinical_measure_file cmf ON std.id = cmf."study.id"
+WHERE std.dbgap_accession = 'phs000463'
+  AND EXISTS (
+    SELECT 1
+    FROM df_diagnosis d
+    WHERE d."participant.id" = prt.id
+      AND d.diagnosis_classification_system = 'ICD-O-3.2'
+      AND d.diagnosis_basis = 'Clinical'
+  );</t>
+  </si>
+  <si>
+    <t>WITH Study AS (
+  SELECT std.id AS study_row_id, std.dbgap_accession AS study_id
+  FROM df_study std
+  WHERE std.dbgap_accession = 'phs000463'
+  LIMIT 1
+),
+FilteredParticipants AS (
+  SELECT prt.id AS participant_id
+  FROM df_participant prt
+  JOIN df_consent_group cg ON prt."consent_group.id" = cg.id
+  JOIN Study s ON cg."study.id" = s.study_row_id
+  WHERE EXISTS (
+    SELECT 1
+    FROM df_diagnosis d
+    WHERE d."participant.id" = prt.id
+      AND d.diagnosis_classification_system = 'ICD-O-3.2'
+      AND d.diagnosis_basis = 'Clinical'
+  )
+)
 SELECT DISTINCT
-    prt.participant_id AS "Participant ID",
-    std.dbgap_accession AS "Study ID",
-    COALESCE(prt.sex_at_birth, '') AS "Sex",
-    COALESCE(prt.race, '') AS "Race",
-	dgn2.diag AS "Diagnosis",
-	dgn3.ant_site AS "Diagnosis Anatomic Site",
-	   COALESCE(CASE WHEN dgn1.age = '-999' THEN 'Not Reported' ELSE dgn1.age END, "") AS "Age at Diagnosis (days)",
-	null AS "Treatment Type",
-	srv.last_known_survival_status AS "Last Known Survival Status"
-FROM 
-    df_study std
-LEFT JOIN 
-    df_participant prt ON std.id = prt."study.id"
-LEFT JOIN 
-    diagnosis1 dgn1 ON prt.id = dgn1."participant.id" 
-LEFT JOIN 
-    diagnosis2 dgn2 ON prt.id = dgn2."participant.id"
-LEFT JOIN 
-    diagnosis3 dgn3 ON prt.id = dgn3."participant.id"
-LEFT JOIN 
-    df_diagnosis dgn ON prt.id = dgn."participant.id"
-LEFT JOIN 
-    df_survival srv ON prt.id = srv."participant.id"
-WHERE 
-    std.dbgap_accession = 'phs000463' AND dgn.diagnosis_classification_system = 'Indication for Study' AND dgn.diagnosis_basis ='Clinical'
-ORDER BY 
-    prt.participant_id ASC limit 100;</t>
+  COALESCE(smp.sample_id, smp.id) AS "Sample ID",
+  prt.participant_id AS "Participant ID",
+  (SELECT study_id FROM Study) AS "Study ID",
+  COALESCE(smp.anatomic_site, '') AS "Sample Anatomic Site",
+  COALESCE(CASE WHEN smp.participant_age_at_collection = -999 THEN 'Not Reported' ELSE CAST(smp.participant_age_at_collection AS TEXT) END, '0') AS "Age at Sample Collection (days)",
+  COALESCE(smp.sample_tumor_status, '') AS "Sample Tumor Status",
+  COALESCE(smp.tumor_classification, '') AS "Sample Tumor Classification",
+  dgn.diagnosis AS "Sample Diagnosis"
+FROM df_participant prt
+JOIN FilteredParticipants fp ON fp.participant_id = prt.id
+LEFT JOIN df_sample smp ON prt.id = smp."participant.id"
+LEFT JOIN df_diagnosis dgn ON smp.id = dgn."sample.id"
+WHERE COALESCE(smp.sample_id, smp.id) IS NOT NULL
+ORDER BY COALESCE(smp.sample_id, smp.id) ASC
+LIMIT 100;</t>
+  </si>
+  <si>
+    <t>WITH Study AS (
+  SELECT std.id AS study_row_id, std.dbgap_accession AS study_id
+  FROM df_study std
+  WHERE std.dbgap_accession = 'phs000463'
+  LIMIT 1
+),
+FilteredParticipants AS (
+  SELECT prt.id AS participant_id
+  FROM df_participant prt
+  JOIN df_consent_group cg ON prt."consent_group.id" = cg.id
+  JOIN Study s ON cg."study.id" = s.study_row_id
+  WHERE EXISTS (
+    SELECT 1
+    FROM df_diagnosis d
+    WHERE d."participant.id" = prt.id
+      AND d.diagnosis_classification_system = 'ICD-O-3.2'
+      AND d.diagnosis_basis = 'Clinical'
+  )
+),
+diagnosis_summary AS (
+  SELECT d."participant.id" AS participant_id,
+         GROUP_CONCAT(DISTINCT d.age_at_diagnosis) AS age_at_diagnosis,
+         GROUP_CONCAT(DISTINCT d.diagnosis) AS diagnosis,
+         GROUP_CONCAT(DISTINCT d.anatomic_site) AS anatomic_site,
+         GROUP_CONCAT(DISTINCT d.diagnosis_category) AS diagnosis_category
+  FROM df_diagnosis d
+  JOIN FilteredParticipants fp ON fp.participant_id = d."participant.id"
+  WHERE d.diagnosis_classification_system = 'ICD-O-3.2'
+    AND d.diagnosis_basis = 'Clinical'
+  GROUP BY d."participant.id"
+),
+survival_summary AS (
+  SELECT s."participant.id" AS participant_id,
+         GROUP_CONCAT(DISTINCT s.last_known_survival_status) AS last_known_survival_status
+  FROM df_survival s
+  JOIN FilteredParticipants fp ON fp.participant_id = s."participant.id"
+  GROUP BY s."participant.id"
+)
+SELECT
+  prt.participant_id AS "Participant ID",
+  (SELECT study_id FROM Study) AS "Study ID",
+  COALESCE(prt.sex_at_birth, '') AS "Sex",
+  COALESCE(prt.race, '') AS "Race",
+  COALESCE(dsum.diagnosis, '') AS "Diagnosis",
+  COALESCE(dsum.anatomic_site, '') AS "Diagnosis Anatomic Site",
+  COALESCE(dsum.diagnosis_category, '') AS "Diagnosis_Category",
+  COALESCE(CASE WHEN dsum.age_at_diagnosis = '-999' THEN 'Not Reported' ELSE dsum.age_at_diagnosis END, '') AS "Age at Diagnosis (days)",
+  NULL AS "Treatment Type",
+  COALESCE(srv.last_known_survival_status, '') AS "Last Known Survival Status"
+FROM df_participant prt
+JOIN FilteredParticipants fp ON fp.participant_id = prt.id
+LEFT JOIN diagnosis_summary dsum ON prt.id = dsum.participant_id
+LEFT JOIN survival_summary  srv  ON prt.id = srv.participant_id
+ORDER BY prt.participant_id ASC
+LIMIT 100;</t>
   </si>
 </sst>
 </file>
@@ -712,19 +759,19 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0C538400-E87C-4027-A918-A51DB80B3430}">
   <dimension ref="A1:E7"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D5" sqref="D5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.77734375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="2" max="3" width="75.77734375" customWidth="1"/>
-    <col min="4" max="4" width="47.109375" customWidth="1"/>
+    <col min="1" max="1" width="12.1640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="75.83203125" customWidth="1"/>
+    <col min="4" max="4" width="47.1640625" customWidth="1"/>
     <col min="5" max="5" width="45.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -741,7 +788,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:5" ht="355.05" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" ht="355" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>5</v>
       </c>
@@ -752,22 +799,22 @@
         <v>13</v>
       </c>
       <c r="D2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="E2" t="s">
-        <v>12</v>
-      </c>
     </row>
-    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>8</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C3" s="3"/>
     </row>
-    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -776,19 +823,19 @@
       </c>
       <c r="C4" s="2"/>
     </row>
-    <row r="5" spans="1:5" ht="409.6" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" ht="409.6" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="C5" s="2"/>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C6" s="1"/>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="C7" s="1"/>
     </row>
   </sheetData>
